--- a/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_à_Saint-Pierre-et-Miquelon/Pandémie_de_Covid-19_à_Saint-Pierre-et-Miquelon.xlsx
+++ b/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_à_Saint-Pierre-et-Miquelon/Pandémie_de_Covid-19_à_Saint-Pierre-et-Miquelon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_%C3%A0_Saint-Pierre-et-Miquelon</t>
+          <t>Pandémie_de_Covid-19_à_Saint-Pierre-et-Miquelon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 atteint la collectivité d'outre-mer de Saint-Pierre-et-Miquelon le 5 avril 2020.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_%C3%A0_Saint-Pierre-et-Miquelon</t>
+          <t>Pandémie_de_Covid-19_à_Saint-Pierre-et-Miquelon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 12 janvier 2020, l'Organisation mondiale de la santé (OMS) confirme qu'un nouveau coronavirus est à l'origine d'une maladie respiratoire chez un groupe de personnes de la ville de Wuhan, dans la province de Hubei, en Chine, qui a été signalée à l'OMS le 31 décembre 2019[1],[2].
-Le taux de létalité lié au Covid-19 est beaucoup plus faible que celui du SRAS en 2003[1],[3], mais la transmission est nettement plus importante, avec un nombre total de décès significatif[1],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 12 janvier 2020, l'Organisation mondiale de la santé (OMS) confirme qu'un nouveau coronavirus est à l'origine d'une maladie respiratoire chez un groupe de personnes de la ville de Wuhan, dans la province de Hubei, en Chine, qui a été signalée à l'OMS le 31 décembre 2019,.
+Le taux de létalité lié au Covid-19 est beaucoup plus faible que celui du SRAS en 2003 mais la transmission est nettement plus importante, avec un nombre total de décès significatif,.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_%C3%A0_Saint-Pierre-et-Miquelon</t>
+          <t>Pandémie_de_Covid-19_à_Saint-Pierre-et-Miquelon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +557,14 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La collectivité, comme l'ensemble du territoire national, est placée en confinement le 17 mars 2020[5].
-Le 5 avril 2020, le premier cas est confirmé dans la collectivité[6],[7].
-Auparavant, le service de ferry[8] entre Terre-Neuve et Saint-Pierre-et-Miquelon avait été suspendu. Les services aériens et de ferry entre les îles de Saint-Pierre-et-Miquelon ont été réduits[9]. Le secteur du tourisme devrait être touché par la pandémie et les mesures connexes[10].
-Le 28 janvier 2021, la Préfecture de Saint-Pierre-et-Miquelon annonce un 24e cas positif[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La collectivité, comme l'ensemble du territoire national, est placée en confinement le 17 mars 2020.
+Le 5 avril 2020, le premier cas est confirmé dans la collectivité,.
+Auparavant, le service de ferry entre Terre-Neuve et Saint-Pierre-et-Miquelon avait été suspendu. Les services aériens et de ferry entre les îles de Saint-Pierre-et-Miquelon ont été réduits. Le secteur du tourisme devrait être touché par la pandémie et les mesures connexes.
+Le 28 janvier 2021, la Préfecture de Saint-Pierre-et-Miquelon annonce un 24e cas positif.
 </t>
         </is>
       </c>
